--- a/entiteti.xlsx
+++ b/entiteti.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\Year4\sem2\SBZ\projekat\coding-job-assistant\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Faks\4. godina\8. semestar\Sistemi bazirani na znanju\SBNZ Coding Job Assistant\coding-job-assistant\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28095" windowHeight="8415" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28095" windowHeight="8415" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
@@ -798,7 +798,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -960,8 +960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1576,7 +1576,7 @@
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
